--- a/mpi/mpi_slae.xlsx
+++ b/mpi/mpi_slae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mymri\repos\sandbox\mpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657E223-50DC-4FD0-9D97-9506AE36A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744EAFC-D6AA-40FC-9F23-24C4C89FCF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,31 +380,31 @@
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>348</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>367</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>383</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>399</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,13 +550,14 @@
         <c:crossAx val="1629393824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1629393824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="60"/>
+          <c:max val="180"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -674,7 +675,6 @@
         <c:crossAx val="1629397152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>265</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>348</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>367</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>383</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>399</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
